--- a/StructureDefinition-ext-R5-FamilyMemberHistory.condition.xlsx
+++ b/StructureDefinition-ext-R5-FamilyMemberHistory.condition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="172">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -407,15 +407,6 @@
 </t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Identification of the Condition or diagnosis.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-condition-code-for-R4</t>
-  </si>
-  <si>
     <t>Extension.value[x]</t>
   </si>
   <si>
@@ -452,12 +443,6 @@
   </si>
   <si>
     <t>Extension.extension:outcome.value[x]</t>
-  </si>
-  <si>
-    <t>The result of the condition for the patient; e.g. death, permanent disability, temporary disability, etc.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-condition-outcome-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:contributedToDeath</t>
@@ -924,8 +909,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="81.75390625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="58.7734375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -1841,43 +1826,43 @@
         <v>77</v>
       </c>
       <c r="X9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF9" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="Y9" t="s" s="2">
+      <c r="AG9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="Z9" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="AA9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF9" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="AG9" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH9" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ9" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>120</v>
@@ -1885,13 +1870,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1916,14 +1901,14 @@
         <v>93</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -1992,7 +1977,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>105</v>
@@ -2095,7 +2080,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>107</v>
@@ -2200,7 +2185,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>113</v>
@@ -2243,7 +2228,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2305,7 +2290,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>122</v>
@@ -2334,10 +2319,10 @@
         <v>123</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2364,32 +2349,32 @@
         <v>77</v>
       </c>
       <c r="X14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF14" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="Y14" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="Z14" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>127</v>
-      </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
       </c>
@@ -2400,7 +2385,7 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>120</v>
@@ -2408,13 +2393,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -2439,14 +2424,14 @@
         <v>93</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2515,7 +2500,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>105</v>
@@ -2618,7 +2603,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>107</v>
@@ -2723,7 +2708,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>113</v>
@@ -2766,7 +2751,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -2828,7 +2813,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>122</v>
@@ -2854,13 +2839,13 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2911,7 +2896,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -2923,7 +2908,7 @@
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>120</v>
@@ -2931,13 +2916,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -2962,14 +2947,14 @@
         <v>93</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3038,7 +3023,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>105</v>
@@ -3141,7 +3126,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>107</v>
@@ -3246,7 +3231,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>113</v>
@@ -3289,7 +3274,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -3351,7 +3336,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>122</v>
@@ -3377,13 +3362,13 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3434,7 +3419,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -3446,7 +3431,7 @@
         <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>120</v>
@@ -3454,13 +3439,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>77</v>
@@ -3485,14 +3470,14 @@
         <v>93</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -3561,7 +3546,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>105</v>
@@ -3664,7 +3649,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>107</v>
@@ -3769,7 +3754,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>113</v>
@@ -3812,7 +3797,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -3874,7 +3859,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>122</v>
@@ -3900,13 +3885,13 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -3957,7 +3942,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -3969,7 +3954,7 @@
         <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>120</v>
@@ -4082,10 +4067,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4108,13 +4093,13 @@
         <v>77</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4165,7 +4150,7 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -4177,7 +4162,7 @@
         <v>77</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>120</v>
